--- a/datas/Shop.xlsx
+++ b/datas/Shop.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,170 +508,229 @@
           <t>##</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>商店ID</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CurrencyType</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>StockType</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>商品类型</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>配置ID</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>所属商店ID</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>道具ID</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>货币类型</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>价格</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>折扣%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>折扣百分比</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>库存类型</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>库存数</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>库存数量</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>解锁等级</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>位置</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>热卖</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>新品</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>推荐</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ShopItemNormal</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Coin</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Unlimited</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ShopItemNormal</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1002</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Coin</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>150</v>
-      </c>
-      <c r="H4" t="n">
-        <v>90</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Unlimited</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>显示位置</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>热卖标签</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>新品标签</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>推荐标签</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -681,13 +740,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -712,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -731,13 +790,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -745,27 +804,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Unlimited</t>
         </is>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -781,13 +840,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4001</v>
+        <v>1004</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -795,7 +854,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -812,15 +871,115 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ShopItemNormal</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ShopItemNormal</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4001</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Unlimited</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/datas/Shop.xlsx
+++ b/datas/Shop.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="道具商店" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="神秘商店" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="公会商店" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="联盟商店" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="限时商店" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="道具商店" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="神秘商店" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="公会商店" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="联盟商店" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="限时商店" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>道具ID</t>
+          <t>道具ID，引用 Item.id</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
